--- a/00.勤怠関連/勤怠.xlsx
+++ b/00.勤怠関連/勤怠.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21526.MJSDM\Work\01.Develop\00.勤怠関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE81E541-5B64-4060-A3DA-67414899A312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D47C9D-48B6-47A7-B64B-D4F162344450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -80,41 +81,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>飯田橋</t>
-    <rPh sb="0" eb="3">
-      <t>イイダバシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>浜町</t>
-    <rPh sb="0" eb="2">
-      <t>ハマチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>馬喰横山</t>
-    <rPh sb="0" eb="4">
-      <t>バクロヨコヤマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上大岡</t>
-    <rPh sb="0" eb="3">
-      <t>カミオオオカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下永谷</t>
-    <rPh sb="0" eb="3">
-      <t>シモナガヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>浜町（MBI)</t>
     <rPh sb="0" eb="1">
       <t>ハマ</t>
@@ -122,6 +88,69 @@
     <rPh sb="1" eb="2">
       <t>マチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社手続き</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCキッティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SBI損保</t>
+    <rPh sb="3" eb="5">
+      <t>ソンポ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eラーニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飯田橋－浜町</t>
+    <rPh sb="0" eb="3">
+      <t>イイダバシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人形町-上大岡</t>
+    <rPh sb="0" eb="3">
+      <t>ニンギョウチョウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カミオオオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -129,10 +158,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="aaa"/>
     <numFmt numFmtId="177" formatCode="mm/dd"/>
     <numFmt numFmtId="178" formatCode="[h]:mm"/>
+    <numFmt numFmtId="182" formatCode="m/d"/>
+    <numFmt numFmtId="185" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -170,12 +201,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -456,19 +489,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="6.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -488,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:19">
       <c r="A2" s="3">
         <v>45965</v>
       </c>
@@ -513,7 +549,7 @@
         <v>0.31250000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:19">
       <c r="A3" s="3">
         <v>45966</v>
       </c>
@@ -538,7 +574,7 @@
         <v>0.34375000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:19" ht="83.4">
       <c r="A4" s="3">
         <v>45967</v>
       </c>
@@ -563,28 +599,40 @@
         <v>0.34375000000000006</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>286</v>
       </c>
       <c r="L4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="M4">
+        <v>675</v>
       </c>
       <c r="N4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="O4">
+        <v>220</v>
+      </c>
+      <c r="Q4">
+        <f>824+210</f>
+        <v>1034</v>
+      </c>
+      <c r="R4">
+        <f>SUM(K4,M4,O4)</f>
+        <v>1181</v>
+      </c>
+      <c r="S4">
+        <f>R4-Q4</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="3">
         <v>45968</v>
       </c>
@@ -609,7 +657,7 @@
         <v>0.34375000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:19">
       <c r="A6" s="3">
         <v>45969</v>
       </c>
@@ -623,7 +671,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:19">
       <c r="A7" s="3">
         <v>45970</v>
       </c>
@@ -637,7 +685,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:19">
       <c r="A8" s="3">
         <v>45971</v>
       </c>
@@ -662,7 +710,7 @@
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:19">
       <c r="A9" s="3">
         <v>45972</v>
       </c>
@@ -687,7 +735,7 @@
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:19">
       <c r="A10" s="3">
         <v>45973</v>
       </c>
@@ -712,7 +760,7 @@
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:19">
       <c r="A11" s="3">
         <v>45974</v>
       </c>
@@ -737,7 +785,7 @@
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:19">
       <c r="A12" s="3">
         <v>45975</v>
       </c>
@@ -762,7 +810,7 @@
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:19">
       <c r="A13" s="3">
         <v>45976</v>
       </c>
@@ -776,7 +824,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:19">
       <c r="A14" s="3">
         <v>45977</v>
       </c>
@@ -790,7 +838,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:19">
       <c r="A15" s="3">
         <v>45978</v>
       </c>
@@ -815,7 +863,7 @@
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:19">
       <c r="A16" s="3">
         <v>45979</v>
       </c>
@@ -1096,4 +1144,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B78EBF8-4B78-4906-A51A-36823792A42B}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5">
+        <v>45965</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
+        <v>45965</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5">
+        <v>45966</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>45967</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5">
+        <v>45967</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
+        <v>45968</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <v>45968</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <v>45968</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/00.勤怠関連/勤怠.xlsx
+++ b/00.勤怠関連/勤怠.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21526.MJSDM\Work\01.Develop\00.勤怠関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D47C9D-48B6-47A7-B64B-D4F162344450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0B8AD0-CBC3-4243-A99C-E218DB63B6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="-14805" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,8 +162,8 @@
     <numFmt numFmtId="176" formatCode="aaa"/>
     <numFmt numFmtId="177" formatCode="mm/dd"/>
     <numFmt numFmtId="178" formatCode="[h]:mm"/>
-    <numFmt numFmtId="182" formatCode="m/d"/>
-    <numFmt numFmtId="185" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="m/d"/>
+    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -207,8 +207,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -492,7 +492,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -574,7 +574,7 @@
         <v>0.34375000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="83.4">
+    <row r="4" spans="1:19">
       <c r="A4" s="3">
         <v>45967</v>
       </c>
@@ -644,7 +644,7 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D5" s="1">
-        <v>0.75</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E5" s="1">
         <v>0.5</v>
@@ -654,7 +654,7 @@
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>0.34375000000000006</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1136,7 +1136,7 @@
     <row r="29" spans="1:7">
       <c r="G29" s="4">
         <f>SUM(G2:G28)</f>
-        <v>6.0104166666666661</v>
+        <v>5.989583333333333</v>
       </c>
     </row>
   </sheetData>

--- a/00.勤怠関連/勤怠.xlsx
+++ b/00.勤怠関連/勤怠.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21526.MJSDM\Work\01.Develop\00.勤怠関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0B8AD0-CBC3-4243-A99C-E218DB63B6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C468F7F2-7DF2-4D0A-AA06-5B5316C35959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1395" yWindow="-14805" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/00.勤怠関連/勤怠.xlsx
+++ b/00.勤怠関連/勤怠.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21526.MJSDM\Work\01.Develop\00.勤怠関連\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21526.MJSDM\Dashboard\01.Develop\00.勤怠関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C468F7F2-7DF2-4D0A-AA06-5B5316C35959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D54CF06-F042-4DA9-8DFA-BB12A9C0CBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="-14805" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -151,6 +151,20 @@
   </si>
   <si>
     <t>バス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメント参照</t>
+    <rPh sb="6" eb="8">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMCC保守レクチャー</t>
+    <rPh sb="4" eb="6">
+      <t>ホシュ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -158,12 +172,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="aaa"/>
     <numFmt numFmtId="177" formatCode="mm/dd"/>
     <numFmt numFmtId="178" formatCode="[h]:mm"/>
-    <numFmt numFmtId="179" formatCode="m/d"/>
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -201,14 +214,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -491,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -694,10 +706,10 @@
         <v>45971</v>
       </c>
       <c r="C8" s="1">
-        <v>0.375</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="D8" s="1">
-        <v>0.75</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E8" s="1">
         <v>0.5</v>
@@ -707,7 +719,7 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>0.33333333333333337</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1136,7 +1148,7 @@
     <row r="29" spans="1:7">
       <c r="G29" s="4">
         <f>SUM(G2:G28)</f>
-        <v>5.989583333333333</v>
+        <v>5.9791666666666661</v>
       </c>
     </row>
   </sheetData>
@@ -1148,115 +1160,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B78EBF8-4B78-4906-A51A-36823792A42B}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="6"/>
+    <col min="3" max="3" width="8.796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>45965</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>45965</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>45966</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>45967</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>45967</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>45968</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>45968</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>45968</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
+        <v>45971</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
+        <v>45971</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5">
         <v>1</v>
       </c>
     </row>

--- a/00.勤怠関連/勤怠.xlsx
+++ b/00.勤怠関連/勤怠.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21526.MJSDM\Dashboard\01.Develop\00.勤怠関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D54CF06-F042-4DA9-8DFA-BB12A9C0CBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E96C7A-38C7-4B83-BEC4-CBECB5CE28E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -731,7 +731,7 @@
         <v>45972</v>
       </c>
       <c r="C9" s="1">
-        <v>0.375</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="D9" s="1">
         <v>0.75</v>
@@ -744,7 +744,7 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>0.33333333333333337</v>
+        <v>0.34375000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1148,7 +1148,7 @@
     <row r="29" spans="1:7">
       <c r="G29" s="4">
         <f>SUM(G2:G28)</f>
-        <v>5.9791666666666661</v>
+        <v>5.989583333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B78EBF8-4B78-4906-A51A-36823792A42B}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/00.勤怠関連/勤怠.xlsx
+++ b/00.勤怠関連/勤怠.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21526.MJSDM\Dashboard\01.Develop\00.勤怠関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E96C7A-38C7-4B83-BEC4-CBECB5CE28E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB40A05F-933D-410F-94EC-17A7B7C978C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -165,6 +165,17 @@
     <rPh sb="4" eb="6">
       <t>ホシュ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PBX講習</t>
+    <rPh sb="3" eb="5">
+      <t>コウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMCCドキュメント</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -504,7 +515,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -734,7 +745,7 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D9" s="1">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E9" s="1">
         <v>0.5</v>
@@ -744,7 +755,7 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>0.34375000000000006</v>
+        <v>0.38541666666666669</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1148,7 +1159,7 @@
     <row r="29" spans="1:7">
       <c r="G29" s="4">
         <f>SUM(G2:G28)</f>
-        <v>5.989583333333333</v>
+        <v>6.0312499999999991</v>
       </c>
     </row>
   </sheetData>
@@ -1160,16 +1171,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B78EBF8-4B78-4906-A51A-36823792A42B}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="10.19921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.796875" style="5"/>
   </cols>
   <sheetData>
@@ -1294,6 +1305,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3">
+        <v>45972</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
+        <v>45972</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3">
+        <v>45972</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3">
+        <v>45972</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
